--- a/Results/TTest 5 agents.xlsx
+++ b/Results/TTest 5 agents.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172E7BA-ABAE-AD45-B651-8C1DC5CBBB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA4DA0-6439-EC49-8A1A-5BFF2B3F9A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1820" windowWidth="20340" windowHeight="16300" activeTab="3" xr2:uid="{2B8FA796-1EC8-A341-AEC1-8CFEA61E1A86}"/>
+    <workbookView xWindow="41820" yWindow="-1200" windowWidth="20340" windowHeight="16300" activeTab="4" xr2:uid="{2B8FA796-1EC8-A341-AEC1-8CFEA61E1A86}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Layout 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Layout 3" sheetId="3" r:id="rId3"/>
-    <sheet name="CPU Time" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Layout 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Layout 3" sheetId="3" r:id="rId4"/>
+    <sheet name="CPU Time" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -369,6 +370,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -387,22 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,6 +1147,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E486FA95-622D-2B43-A845-78DF26F10D25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7B4B5-E6F1-5945-9674-97DBEA5BE9EF}">
   <dimension ref="B2:E35"/>
   <sheetViews>
@@ -1565,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333511A7-5D5B-8940-8734-59BDCC55314C}">
   <dimension ref="B2:E38"/>
   <sheetViews>
@@ -1989,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99730050-18CC-4D49-9027-3E539906D412}">
   <dimension ref="B2:H14"/>
   <sheetViews>
@@ -2000,35 +2013,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
+      <c r="B4" s="27"/>
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -2044,246 +2057,246 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="15">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <v>2.7070283889770478E-3</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <v>6.289243698120112E-4</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>4.0732383728027313E-3</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="10">
         <v>6.9015026092529245E-3</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="10">
         <v>6.2887907028198213E-3</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="19">
         <v>3.0478477478027288E-3</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <v>3.1232357025146435E-3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>3.9781570434570274E-3</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="14">
         <v>2.1131515502929637E-3</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="16">
         <v>5.7542324066162055E-4</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="16">
         <v>3.2455444335937451E-3</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="11">
         <v>7.1676015853881798E-3</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="15">
+      <c r="B7" s="9">
         <f t="shared" ref="B7:B14" si="0">B6+1</f>
         <v>3</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="10">
         <v>3.0996084213256803E-3</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="16">
         <v>1.7959117889404252E-3</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="18">
         <v>2.6148557662963824E-3</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="10">
         <v>2.6838588714599571E-2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="16">
         <v>3.4706044197082474E-2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="11">
         <v>4.9934025287628128</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="15">
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="10">
         <v>1.101803779602045E-3</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="17">
         <v>2.6710033416747981E-4</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="14">
         <v>2.1976947784423774E-3</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="16">
         <v>1.1491298675537069E-3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="10">
         <v>2.2901296615600551E-3</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="19">
         <v>5.8040618896484334E-4</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="15">
+      <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="10">
         <v>2.1841526031494093E-3</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="16">
         <v>6.1626434326171836E-4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="14">
         <v>3.3769607543945278E-3</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="17">
         <v>2.6078939437866153E-3</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <v>37.817969918250995</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="15">
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <v>7.5153949260711626</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="17">
         <v>2.2746532917022648</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="14">
         <v>1.6485929489135701E-3</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <v>4.4715404510497993E-4</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="16">
         <v>1.7168760299682568E-3</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="11">
         <v>7.9467058181762647E-3</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>2.455711364746089E-3</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="17">
         <v>1.6030073165893498E-3</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="14">
         <v>2.3307800292968702E-3</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="17">
         <v>6.4568519592285109E-4</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <v>1.2955689430236769E-2</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="20">
         <v>1.099133491516109E-3</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="15">
+      <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <v>3.2690525054931583E-3</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>0.63629593849182098</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>1.3849231958389239</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="10">
         <v>0.24945094585418653</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="20">
         <v>7.771730422973628E-4</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="15">
+      <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="10">
         <v>1.6618967056274369E-3</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <v>4.6532154083251916E-4</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="18">
         <v>0.45893275737762407</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="10">
         <v>1.7807960510253871E-3</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="19">
         <v>4.6236515045165982E-4</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="18">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>2.6549816131591752E-3</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="22">
         <v>9.1700553894042921E-4</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="15">
         <v>1.1897802352905241E-3</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="21">
         <v>3.1645298004150341E-4</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>2.0851850509643497E-3</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="23">
         <v>6.3121318817138618E-4</v>
       </c>
     </row>
